--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Comp-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Comp-Cd47.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H2">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I2">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J2">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N2">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O2">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P2">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q2">
-        <v>13.62999976793178</v>
+        <v>36.80533729699267</v>
       </c>
       <c r="R2">
-        <v>122.669997911386</v>
+        <v>331.248035672934</v>
       </c>
       <c r="S2">
-        <v>0.002009166242425626</v>
+        <v>0.00615766438844032</v>
       </c>
       <c r="T2">
-        <v>0.002009166242425626</v>
+        <v>0.00615766438844032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H3">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I3">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J3">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>247.152878</v>
       </c>
       <c r="O3">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P3">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q3">
-        <v>31.69222131592378</v>
+        <v>67.56681855622534</v>
       </c>
       <c r="R3">
-        <v>285.2299918433141</v>
+        <v>608.101367006028</v>
       </c>
       <c r="S3">
-        <v>0.004671675884048674</v>
+        <v>0.01130417007475361</v>
       </c>
       <c r="T3">
-        <v>0.004671675884048674</v>
+        <v>0.01130417007475361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H4">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I4">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J4">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N4">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O4">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P4">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q4">
-        <v>36.53778794214978</v>
+        <v>61.93512077985533</v>
       </c>
       <c r="R4">
-        <v>328.8400914793481</v>
+        <v>557.416087018698</v>
       </c>
       <c r="S4">
-        <v>0.005385949475875357</v>
+        <v>0.01036196692187432</v>
       </c>
       <c r="T4">
-        <v>0.005385949475875357</v>
+        <v>0.01036196692187432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H5">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I5">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J5">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N5">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O5">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P5">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q5">
-        <v>8.973562909584114</v>
+        <v>13.89217729531267</v>
       </c>
       <c r="R5">
-        <v>80.76206618625702</v>
+        <v>125.029595657814</v>
       </c>
       <c r="S5">
-        <v>0.001322771825325927</v>
+        <v>0.002324210880584313</v>
       </c>
       <c r="T5">
-        <v>0.001322771825325927</v>
+        <v>0.002324210880584313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H6">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I6">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J6">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N6">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O6">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P6">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q6">
-        <v>25.86024934608578</v>
+        <v>72.944174168936</v>
       </c>
       <c r="R6">
-        <v>232.7422441147721</v>
+        <v>656.497567520424</v>
       </c>
       <c r="S6">
-        <v>0.003811998598056394</v>
+        <v>0.01220382087521166</v>
       </c>
       <c r="T6">
-        <v>0.003811998598056394</v>
+        <v>0.01220382087521166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3846876666666668</v>
+        <v>0.820142</v>
       </c>
       <c r="H7">
-        <v>1.154063</v>
+        <v>2.460426</v>
       </c>
       <c r="I7">
-        <v>0.02380341367695061</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="J7">
-        <v>0.02380341367695062</v>
+        <v>0.0512333586526677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N7">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O7">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P7">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q7">
-        <v>44.78635693450389</v>
+        <v>53.086287519572</v>
       </c>
       <c r="R7">
-        <v>403.077212410535</v>
+        <v>477.776587676148</v>
       </c>
       <c r="S7">
-        <v>0.006601851651218636</v>
+        <v>0.008881525511803474</v>
       </c>
       <c r="T7">
-        <v>0.006601851651218637</v>
+        <v>0.008881525511803476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>42.93761</v>
       </c>
       <c r="I8">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J8">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N8">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O8">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P8">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q8">
-        <v>507.1123624408244</v>
+        <v>642.3006498779989</v>
       </c>
       <c r="R8">
-        <v>4564.01126196742</v>
+        <v>5780.70584890199</v>
       </c>
       <c r="S8">
-        <v>0.07475224189878452</v>
+        <v>0.1074591928477991</v>
       </c>
       <c r="T8">
-        <v>0.07475224189878452</v>
+        <v>0.1074591928477991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>42.93761</v>
       </c>
       <c r="I9">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J9">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>247.152878</v>
       </c>
       <c r="O9">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P9">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q9">
         <v>1179.128209549064</v>
@@ -1013,10 +1013,10 @@
         <v>10612.15388594158</v>
       </c>
       <c r="S9">
-        <v>0.1738125190355181</v>
+        <v>0.1972723609827896</v>
       </c>
       <c r="T9">
-        <v>0.1738125190355181</v>
+        <v>0.1972723609827897</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>42.93761</v>
       </c>
       <c r="I10">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J10">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N10">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O10">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P10">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q10">
-        <v>1359.410438531284</v>
+        <v>1080.847813081281</v>
       </c>
       <c r="R10">
-        <v>12234.69394678156</v>
+        <v>9727.630317731529</v>
       </c>
       <c r="S10">
-        <v>0.2003874988409129</v>
+        <v>0.1808296996228864</v>
       </c>
       <c r="T10">
-        <v>0.2003874988409129</v>
+        <v>0.1808296996228865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>42.93761</v>
       </c>
       <c r="I11">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J11">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N11">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O11">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P11">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q11">
-        <v>333.8668205480878</v>
+        <v>242.4364279831989</v>
       </c>
       <c r="R11">
-        <v>3004.80138493279</v>
+        <v>2181.92785184879</v>
       </c>
       <c r="S11">
-        <v>0.04921452360471894</v>
+        <v>0.04056048031856507</v>
       </c>
       <c r="T11">
-        <v>0.04921452360471894</v>
+        <v>0.04056048031856507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>42.93761</v>
       </c>
       <c r="I12">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J12">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N12">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O12">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P12">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q12">
-        <v>962.1461747972044</v>
+        <v>1272.970006916627</v>
       </c>
       <c r="R12">
-        <v>8659.315573174839</v>
+        <v>11456.73006224964</v>
       </c>
       <c r="S12">
-        <v>0.1418277070869547</v>
+        <v>0.2129724288597572</v>
       </c>
       <c r="T12">
-        <v>0.1418277070869547</v>
+        <v>0.2129724288597572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>42.93761</v>
       </c>
       <c r="I13">
-        <v>0.8856203631253849</v>
+        <v>0.8940882484652539</v>
       </c>
       <c r="J13">
-        <v>0.8856203631253851</v>
+        <v>0.894088248465254</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N13">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O13">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P13">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q13">
-        <v>1666.303423101272</v>
+        <v>926.4242492410867</v>
       </c>
       <c r="R13">
-        <v>14996.73080791145</v>
+        <v>8337.818243169781</v>
       </c>
       <c r="S13">
-        <v>0.2456258726584959</v>
+        <v>0.1549940858334565</v>
       </c>
       <c r="T13">
-        <v>0.2456258726584959</v>
+        <v>0.1549940858334565</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H14">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I14">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J14">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N14">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O14">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P14">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q14">
-        <v>9.46366385027911</v>
+        <v>3.891011841174111</v>
       </c>
       <c r="R14">
-        <v>85.172974652512</v>
+        <v>35.019106570567</v>
       </c>
       <c r="S14">
-        <v>0.001395016453513096</v>
+        <v>0.0006509801786643356</v>
       </c>
       <c r="T14">
-        <v>0.001395016453513096</v>
+        <v>0.0006509801786643356</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H15">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I15">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J15">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>247.152878</v>
       </c>
       <c r="O15">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P15">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q15">
-        <v>22.00473472554311</v>
+        <v>7.143075172801555</v>
       </c>
       <c r="R15">
-        <v>198.042612529888</v>
+        <v>64.28767655521399</v>
       </c>
       <c r="S15">
-        <v>0.003243666246283492</v>
+        <v>0.001195061989531237</v>
       </c>
       <c r="T15">
-        <v>0.003243666246283491</v>
+        <v>0.001195061989531237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H16">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I16">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J16">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N16">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O16">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P16">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q16">
-        <v>25.36913784333511</v>
+        <v>6.547699492449888</v>
       </c>
       <c r="R16">
-        <v>228.322240590016</v>
+        <v>58.929295432049</v>
       </c>
       <c r="S16">
-        <v>0.00373960500529089</v>
+        <v>0.001095453511688421</v>
       </c>
       <c r="T16">
-        <v>0.003739605005290889</v>
+        <v>0.001095453511688421</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H17">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I17">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J17">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N17">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O17">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P17">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q17">
-        <v>6.230578456460444</v>
+        <v>1.468662708334111</v>
       </c>
       <c r="R17">
-        <v>56.07520610814399</v>
+        <v>13.217964375007</v>
       </c>
       <c r="S17">
-        <v>0.0009184349316686902</v>
+        <v>0.0002457125167680016</v>
       </c>
       <c r="T17">
-        <v>0.00091843493166869</v>
+        <v>0.0002457125167680016</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H18">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I18">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J18">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N18">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O18">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P18">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q18">
-        <v>17.95544468544711</v>
+        <v>7.711562134201333</v>
       </c>
       <c r="R18">
-        <v>161.599002169024</v>
+        <v>69.404059207812</v>
       </c>
       <c r="S18">
-        <v>0.002646769915185043</v>
+        <v>0.001290171888654213</v>
       </c>
       <c r="T18">
-        <v>0.002646769915185042</v>
+        <v>0.001290171888654213</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.2670986666666667</v>
+        <v>0.08670433333333333</v>
       </c>
       <c r="H19">
-        <v>0.801296</v>
+        <v>0.260113</v>
       </c>
       <c r="I19">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="J19">
-        <v>0.0165273301073562</v>
+        <v>0.005416323278660424</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N19">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O19">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P19">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q19">
-        <v>31.09633413963555</v>
+        <v>5.612212480919333</v>
       </c>
       <c r="R19">
-        <v>279.8670072567199</v>
+        <v>50.50991232827401</v>
       </c>
       <c r="S19">
-        <v>0.004583837555414988</v>
+        <v>0.0009389431933542147</v>
       </c>
       <c r="T19">
-        <v>0.004583837555414988</v>
+        <v>0.0009389431933542148</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H20">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I20">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J20">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N20">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O20">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P20">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q20">
-        <v>32.57886972361533</v>
+        <v>26.98372351150955</v>
       </c>
       <c r="R20">
-        <v>293.209827512538</v>
+        <v>242.853511603586</v>
       </c>
       <c r="S20">
-        <v>0.004802374642666819</v>
+        <v>0.004514473321996119</v>
       </c>
       <c r="T20">
-        <v>0.004802374642666819</v>
+        <v>0.00451447332199612</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H21">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I21">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J21">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>247.152878</v>
       </c>
       <c r="O21">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P21">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q21">
-        <v>75.75178041695135</v>
+        <v>49.53641195464577</v>
       </c>
       <c r="R21">
-        <v>681.7660237525621</v>
+        <v>445.8277075918119</v>
       </c>
       <c r="S21">
-        <v>0.01116639197422905</v>
+        <v>0.008287618650601396</v>
       </c>
       <c r="T21">
-        <v>0.01116639197422905</v>
+        <v>0.008287618650601397</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H22">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I22">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J22">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N22">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O22">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P22">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q22">
-        <v>87.33381171120934</v>
+        <v>45.40754948908243</v>
       </c>
       <c r="R22">
-        <v>786.004305400884</v>
+        <v>408.667945401742</v>
       </c>
       <c r="S22">
-        <v>0.01287367199560438</v>
+        <v>0.00759684521293901</v>
       </c>
       <c r="T22">
-        <v>0.01287367199560438</v>
+        <v>0.007596845212939012</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H23">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I23">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J23">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N23">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O23">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P23">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q23">
-        <v>21.44890256534234</v>
+        <v>10.18500844278955</v>
       </c>
       <c r="R23">
-        <v>193.040123088081</v>
+        <v>91.665075985106</v>
       </c>
       <c r="S23">
-        <v>0.003161732333462937</v>
+        <v>0.001703988290558437</v>
       </c>
       <c r="T23">
-        <v>0.003161732333462936</v>
+        <v>0.001703988290558438</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H24">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I24">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J24">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N24">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O24">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P24">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q24">
-        <v>61.81201091789734</v>
+        <v>53.47880421981066</v>
       </c>
       <c r="R24">
-        <v>556.3080982610761</v>
+        <v>481.3092379782959</v>
       </c>
       <c r="S24">
-        <v>0.009111563303535424</v>
+        <v>0.008947194957716285</v>
       </c>
       <c r="T24">
-        <v>0.009111563303535424</v>
+        <v>0.008947194957716289</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9194930000000001</v>
+        <v>0.6012846666666666</v>
       </c>
       <c r="H25">
-        <v>2.758479</v>
+        <v>1.803854</v>
       </c>
       <c r="I25">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255323</v>
       </c>
       <c r="J25">
-        <v>0.05689569525769481</v>
+        <v>0.03756158443255324</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N25">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O25">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P25">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q25">
-        <v>107.0498101839617</v>
+        <v>38.92005371725466</v>
       </c>
       <c r="R25">
-        <v>963.448291655655</v>
+        <v>350.280483455292</v>
       </c>
       <c r="S25">
-        <v>0.0157799610081962</v>
+        <v>0.006511463998741983</v>
       </c>
       <c r="T25">
-        <v>0.0157799610081962</v>
+        <v>0.006511463998741985</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>0.343811</v>
       </c>
       <c r="I26">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J26">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N26">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O26">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P26">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q26">
-        <v>4.060561555315777</v>
+        <v>5.143044262016556</v>
       </c>
       <c r="R26">
-        <v>36.545053997842</v>
+        <v>46.287398358149</v>
       </c>
       <c r="S26">
-        <v>0.0005985578386748355</v>
+        <v>0.0008604496745905199</v>
       </c>
       <c r="T26">
-        <v>0.0005985578386748355</v>
+        <v>0.0008604496745905199</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2099,10 +2099,10 @@
         <v>0.343811</v>
       </c>
       <c r="I27">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J27">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>247.152878</v>
       </c>
       <c r="O27">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P27">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q27">
         <v>9.441542015339778</v>
       </c>
       <c r="R27">
-        <v>84.973878138058</v>
+        <v>84.97387813805798</v>
       </c>
       <c r="S27">
-        <v>0.001391755525799422</v>
+        <v>0.00157960370178624</v>
       </c>
       <c r="T27">
-        <v>0.001391755525799422</v>
+        <v>0.00157960370178624</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2161,10 +2161,10 @@
         <v>0.343811</v>
       </c>
       <c r="I28">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J28">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N28">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O28">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P28">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q28">
-        <v>10.88510194866178</v>
+        <v>8.654589006311443</v>
       </c>
       <c r="R28">
-        <v>97.965917537956</v>
+        <v>77.89130105680299</v>
       </c>
       <c r="S28">
-        <v>0.001604547303960167</v>
+        <v>0.00144794365259371</v>
       </c>
       <c r="T28">
-        <v>0.001604547303960167</v>
+        <v>0.00144794365259371</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2223,10 +2223,10 @@
         <v>0.343811</v>
       </c>
       <c r="I29">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J29">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N29">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O29">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P29">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q29">
-        <v>2.673345941692111</v>
+        <v>1.941242438536556</v>
       </c>
       <c r="R29">
-        <v>24.060113475229</v>
+        <v>17.471181946829</v>
       </c>
       <c r="S29">
-        <v>0.0003940716443011622</v>
+        <v>0.000324776793557121</v>
       </c>
       <c r="T29">
-        <v>0.0003940716443011621</v>
+        <v>0.000324776793557121</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2285,10 +2285,10 @@
         <v>0.343811</v>
       </c>
       <c r="I30">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J30">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N30">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O30">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P30">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q30">
-        <v>7.704118568853778</v>
+        <v>10.19295417346266</v>
       </c>
       <c r="R30">
-        <v>69.33706711968401</v>
+        <v>91.73658756116399</v>
       </c>
       <c r="S30">
-        <v>0.001135646017588612</v>
+        <v>0.001705317639680037</v>
       </c>
       <c r="T30">
-        <v>0.001135646017588612</v>
+        <v>0.001705317639680037</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2347,10 +2347,10 @@
         <v>0.343811</v>
       </c>
       <c r="I31">
-        <v>0.007091359362258443</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="J31">
-        <v>0.007091359362258444</v>
+        <v>0.007159163604892946</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N31">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O31">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P31">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q31">
-        <v>13.34246238204389</v>
+        <v>7.418085160208666</v>
       </c>
       <c r="R31">
-        <v>120.082161438395</v>
+        <v>66.762766441878</v>
       </c>
       <c r="S31">
-        <v>0.001966781031934245</v>
+        <v>0.001241072142685317</v>
       </c>
       <c r="T31">
-        <v>0.001966781031934245</v>
+        <v>0.001241072142685317</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H32">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I32">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J32">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="N32">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="O32">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="P32">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="Q32">
-        <v>5.761478495359777</v>
+        <v>3.262422695003111</v>
       </c>
       <c r="R32">
-        <v>51.853306458238</v>
+        <v>29.361804255028</v>
       </c>
       <c r="S32">
-        <v>0.0008492860085422115</v>
+        <v>0.0005458149693604791</v>
       </c>
       <c r="T32">
-        <v>0.0008492860085422115</v>
+        <v>0.0005458149693604791</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H33">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I33">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J33">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>247.152878</v>
       </c>
       <c r="O33">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="P33">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="Q33">
-        <v>13.39648236909578</v>
+        <v>5.989118385419556</v>
       </c>
       <c r="R33">
-        <v>120.568341321862</v>
+        <v>53.902065468776</v>
       </c>
       <c r="S33">
-        <v>0.001974743991306869</v>
+        <v>0.001002000897382471</v>
       </c>
       <c r="T33">
-        <v>0.001974743991306869</v>
+        <v>0.001002000897382471</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H34">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I34">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J34">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="N34">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="O34">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="P34">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="Q34">
-        <v>15.44473096705378</v>
+        <v>5.489925062212889</v>
       </c>
       <c r="R34">
-        <v>139.002578703484</v>
+        <v>49.409325559916</v>
       </c>
       <c r="S34">
-        <v>0.002276671504819753</v>
+        <v>0.0009184840714272301</v>
       </c>
       <c r="T34">
-        <v>0.002276671504819753</v>
+        <v>0.0009184840714272304</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H35">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I35">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J35">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="N35">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="O35">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="P35">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="Q35">
-        <v>3.793176126970111</v>
+        <v>1.231401688443111</v>
       </c>
       <c r="R35">
-        <v>34.138585142731</v>
+        <v>11.082615195988</v>
       </c>
       <c r="S35">
-        <v>0.0005591431808982017</v>
+        <v>0.0002060179007084114</v>
       </c>
       <c r="T35">
-        <v>0.0005591431808982016</v>
+        <v>0.0002060179007084114</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H36">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I36">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J36">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="N36">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="O36">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="P36">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="Q36">
-        <v>10.93127461694178</v>
+        <v>6.465766835845333</v>
       </c>
       <c r="R36">
-        <v>98.38147155247599</v>
+        <v>58.191901522608</v>
       </c>
       <c r="S36">
-        <v>0.001611353508509719</v>
+        <v>0.001081745885597316</v>
       </c>
       <c r="T36">
-        <v>0.001611353508509719</v>
+        <v>0.001081745885597316</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.1626096666666667</v>
+        <v>0.07269733333333334</v>
       </c>
       <c r="H37">
-        <v>0.487829</v>
+        <v>0.218092</v>
       </c>
       <c r="I37">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="J37">
-        <v>0.01006183847035486</v>
+        <v>0.004541321565971748</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="N37">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="O37">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="P37">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="Q37">
-        <v>18.93144803793388</v>
+        <v>4.705565059757333</v>
       </c>
       <c r="R37">
-        <v>170.383032341405</v>
+        <v>42.35008553781601</v>
       </c>
       <c r="S37">
-        <v>0.002790640276278102</v>
+        <v>0.0007872578414958399</v>
       </c>
       <c r="T37">
-        <v>0.002790640276278102</v>
+        <v>0.0007872578414958401</v>
       </c>
     </row>
   </sheetData>
